--- a/datos.xlsx
+++ b/datos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Rp</t>
   </si>
@@ -423,7 +423,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,19 +713,58 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
+      <c r="A16" s="4">
+        <v>6692</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>44157</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>6789</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44243</v>
+      </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="E17" s="11">
+        <v>28.1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>6999</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44037</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="11">
+        <v>30.1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
